--- a/log_history/Y3_B2526_Parasitology_SGD_POS_scanner1759325558846_3cf107870fbc6c911162a70c7aa82dd4d6b607b7fef701b9a1a24220b885a6ae.xlsx
+++ b/log_history/Y3_B2526_Parasitology_SGD_POS_scanner1759325558846_3cf107870fbc6c911162a70c7aa82dd4d6b607b7fef701b9a1a24220b885a6ae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BBE965-AEC1-44F6-9FC0-5B9E5626DD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25101B34-11EC-4755-99D3-1E75528BAD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,19 +53,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -84,32 +78,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +437,7 @@
     <col min="3" max="3" width="10.25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +457,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>234056</v>
       </c>
       <c r="B2" t="s">
@@ -501,8 +477,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>234099</v>
       </c>
       <c r="B3" t="s">
@@ -521,8 +497,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>234627</v>
       </c>
       <c r="B4" t="s">
@@ -541,8 +517,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>234628</v>
       </c>
       <c r="B5" t="s">
@@ -561,8 +537,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>234652</v>
       </c>
       <c r="B6" t="s">
@@ -581,8 +557,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>234653</v>
       </c>
       <c r="B7" t="s">
@@ -601,8 +577,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>234654</v>
       </c>
       <c r="B8" t="s">
@@ -621,8 +597,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>234667</v>
       </c>
       <c r="B9" t="s">
@@ -641,8 +617,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>234668</v>
       </c>
       <c r="B10" t="s">
@@ -661,8 +637,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>234669</v>
       </c>
       <c r="B11" t="s">
@@ -681,8 +657,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>234670</v>
       </c>
       <c r="B12" t="s">
@@ -701,8 +677,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>234690</v>
       </c>
       <c r="B13" t="s">
@@ -721,8 +697,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>234691</v>
       </c>
       <c r="B14" t="s">
@@ -741,8 +717,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>234705</v>
       </c>
       <c r="B15" t="s">
@@ -761,8 +737,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>234706</v>
       </c>
       <c r="B16" t="s">
@@ -781,8 +757,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>234707</v>
       </c>
       <c r="B17" t="s">
@@ -801,8 +777,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>234714</v>
       </c>
       <c r="B18" t="s">
@@ -821,8 +797,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>234715</v>
       </c>
       <c r="B19" t="s">
@@ -841,8 +817,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>234717</v>
       </c>
       <c r="B20" t="s">
@@ -861,8 +837,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>234719</v>
       </c>
       <c r="B21" t="s">
@@ -881,8 +857,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>234759</v>
       </c>
       <c r="B22" t="s">
@@ -901,8 +877,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>234760</v>
       </c>
       <c r="B23" t="s">
@@ -921,8 +897,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>234763</v>
       </c>
       <c r="B24" t="s">
@@ -941,8 +917,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>234770</v>
       </c>
       <c r="B25" t="s">
@@ -961,8 +937,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>234772</v>
       </c>
       <c r="B26" t="s">
@@ -981,8 +957,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>234882</v>
       </c>
       <c r="B27" t="s">
@@ -1001,8 +977,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>234903</v>
       </c>
       <c r="B28" t="s">
@@ -1021,8 +997,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>234906</v>
       </c>
       <c r="B29" t="s">
@@ -1041,8 +1017,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>234911</v>
       </c>
       <c r="B30" t="s">
@@ -1061,8 +1037,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>234923</v>
       </c>
       <c r="B31" t="s">
@@ -1081,8 +1057,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>234947</v>
       </c>
       <c r="B32" t="s">
@@ -1101,8 +1077,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>234953</v>
       </c>
       <c r="B33" t="s">
@@ -1121,8 +1097,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>234963</v>
       </c>
       <c r="B34" t="s">
@@ -1141,8 +1117,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>234983</v>
       </c>
       <c r="B35" t="s">
@@ -1161,8 +1137,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>235006</v>
       </c>
       <c r="B36" t="s">
@@ -1181,8 +1157,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>235010</v>
       </c>
       <c r="B37" t="s">
@@ -1201,8 +1177,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>235017</v>
       </c>
       <c r="B38" t="s">
@@ -1221,8 +1197,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>235020</v>
       </c>
       <c r="B39" t="s">
@@ -1241,8 +1217,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>235056</v>
       </c>
       <c r="B40" t="s">
@@ -1261,8 +1237,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>235090</v>
       </c>
       <c r="B41" t="s">
@@ -1281,8 +1257,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>235091</v>
       </c>
       <c r="B42" t="s">
@@ -1301,8 +1277,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>235112</v>
       </c>
       <c r="B43" t="s">
@@ -1321,8 +1297,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>235116</v>
       </c>
       <c r="B44" t="s">
@@ -1341,8 +1317,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>235127</v>
       </c>
       <c r="B45" t="s">
@@ -1361,8 +1337,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>235128</v>
       </c>
       <c r="B46" t="s">
@@ -1381,8 +1357,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>235144</v>
       </c>
       <c r="B47" t="s">
@@ -1401,8 +1377,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>235159</v>
       </c>
       <c r="B48" t="s">
@@ -1421,8 +1397,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>235187</v>
       </c>
       <c r="B49" t="s">
@@ -1441,8 +1417,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>235191</v>
       </c>
       <c r="B50" t="s">
@@ -1461,8 +1437,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>234028</v>
       </c>
       <c r="B51" t="s">
@@ -1481,8 +1457,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>234053</v>
       </c>
       <c r="B52" t="s">
@@ -1501,8 +1477,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>234066</v>
       </c>
       <c r="B53" t="s">
@@ -1521,8 +1497,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>234068</v>
       </c>
       <c r="B54" t="s">
@@ -1541,8 +1517,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>234069</v>
       </c>
       <c r="B55" t="s">
@@ -1561,8 +1537,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>234071</v>
       </c>
       <c r="B56" t="s">
@@ -1581,8 +1557,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>234074</v>
       </c>
       <c r="B57" t="s">
@@ -1601,8 +1577,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>234076</v>
       </c>
       <c r="B58" t="s">
@@ -1621,8 +1597,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>234082</v>
       </c>
       <c r="B59" t="s">
@@ -1641,8 +1617,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>234093</v>
       </c>
       <c r="B60" t="s">
@@ -1661,8 +1637,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>234110</v>
       </c>
       <c r="B61" t="s">
@@ -1681,8 +1657,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>234114</v>
       </c>
       <c r="B62" t="s">
@@ -1701,8 +1677,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>234123</v>
       </c>
       <c r="B63" t="s">
@@ -1721,8 +1697,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>234185</v>
       </c>
       <c r="B64" t="s">
@@ -1741,8 +1717,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>234196</v>
       </c>
       <c r="B65" t="s">
@@ -1761,8 +1737,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>234200</v>
       </c>
       <c r="B66" t="s">
@@ -1781,8 +1757,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>234203</v>
       </c>
       <c r="B67" t="s">
@@ -1801,8 +1777,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>234206</v>
       </c>
       <c r="B68" t="s">
@@ -1821,8 +1797,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>234226</v>
       </c>
       <c r="B69" t="s">
@@ -1841,8 +1817,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>234251</v>
       </c>
       <c r="B70" t="s">
@@ -1861,8 +1837,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>234254</v>
       </c>
       <c r="B71" t="s">
@@ -1881,8 +1857,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>234290</v>
       </c>
       <c r="B72" t="s">
@@ -1901,8 +1877,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>234291</v>
       </c>
       <c r="B73" t="s">
@@ -1921,8 +1897,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>234407</v>
       </c>
       <c r="B74" t="s">
@@ -1941,8 +1917,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>234408</v>
       </c>
       <c r="B75" t="s">
@@ -1961,8 +1937,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>234419</v>
       </c>
       <c r="B76" t="s">
@@ -1981,8 +1957,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>234420</v>
       </c>
       <c r="B77" t="s">
@@ -2001,8 +1977,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>234421</v>
       </c>
       <c r="B78" t="s">
@@ -2021,8 +1997,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>234423</v>
       </c>
       <c r="B79" t="s">
@@ -2041,8 +2017,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>234424</v>
       </c>
       <c r="B80" t="s">
@@ -2061,8 +2037,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>234438</v>
       </c>
       <c r="B81" t="s">
@@ -2081,8 +2057,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>234440</v>
       </c>
       <c r="B82" t="s">
@@ -2101,8 +2077,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>234453</v>
       </c>
       <c r="B83" t="s">
@@ -2121,8 +2097,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>234465</v>
       </c>
       <c r="B84" t="s">
@@ -2141,8 +2117,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>234466</v>
       </c>
       <c r="B85" t="s">
@@ -2161,8 +2137,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>234493</v>
       </c>
       <c r="B86" t="s">
@@ -2181,8 +2157,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>234496</v>
       </c>
       <c r="B87" t="s">
@@ -2201,8 +2177,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>234497</v>
       </c>
       <c r="B88" t="s">
@@ -2221,8 +2197,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>234499</v>
       </c>
       <c r="B89" t="s">
@@ -2241,8 +2217,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>234501</v>
       </c>
       <c r="B90" t="s">
@@ -2261,8 +2237,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
         <v>234513</v>
       </c>
       <c r="B91" t="s">
@@ -2281,8 +2257,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>234532</v>
       </c>
       <c r="B92" t="s">
@@ -2301,8 +2277,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>234538</v>
       </c>
       <c r="B93" t="s">
@@ -2321,8 +2297,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
         <v>234571</v>
       </c>
       <c r="B94" t="s">
@@ -2341,8 +2317,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>234572</v>
       </c>
       <c r="B95" t="s">
@@ -2361,8 +2337,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>234576</v>
       </c>
       <c r="B96" t="s">
@@ -2381,8 +2357,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>234577</v>
       </c>
       <c r="B97" t="s">
@@ -2401,8 +2377,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>234591</v>
       </c>
       <c r="B98" t="s">
@@ -2421,8 +2397,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>234605</v>
       </c>
       <c r="B99" t="s">
@@ -2441,8 +2417,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>234629</v>
       </c>
       <c r="B100" t="s">
@@ -2461,8 +2437,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>234641</v>
       </c>
       <c r="B101" t="s">
@@ -2481,8 +2457,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
         <v>234648</v>
       </c>
       <c r="B102" t="s">
@@ -2501,8 +2477,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>234649</v>
       </c>
       <c r="B103" t="s">
@@ -2521,8 +2497,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>234650</v>
       </c>
       <c r="B104" t="s">
@@ -2541,8 +2517,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>234657</v>
       </c>
       <c r="B105" t="s">
@@ -2561,8 +2537,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>234662</v>
       </c>
       <c r="B106" t="s">
@@ -2581,8 +2557,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>234681</v>
       </c>
       <c r="B107" t="s">
@@ -2601,8 +2577,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>234682</v>
       </c>
       <c r="B108" t="s">
@@ -2621,8 +2597,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>234686</v>
       </c>
       <c r="B109" t="s">
@@ -2641,8 +2617,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>234688</v>
       </c>
       <c r="B110" t="s">
@@ -2661,8 +2637,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
         <v>234689</v>
       </c>
       <c r="B111" t="s">
@@ -2681,8 +2657,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
         <v>234692</v>
       </c>
       <c r="B112" t="s">
@@ -2701,8 +2677,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
         <v>234693</v>
       </c>
       <c r="B113" t="s">
@@ -2721,8 +2697,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
         <v>234745</v>
       </c>
       <c r="B114" t="s">
@@ -2741,8 +2717,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
         <v>234748</v>
       </c>
       <c r="B115" t="s">
@@ -2761,8 +2737,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
         <v>234750</v>
       </c>
       <c r="B116" t="s">
@@ -2781,8 +2757,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
         <v>234776</v>
       </c>
       <c r="B117" t="s">
@@ -2801,8 +2777,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
         <v>234783</v>
       </c>
       <c r="B118" t="s">
@@ -2821,8 +2797,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
         <v>234838</v>
       </c>
       <c r="B119" t="s">
@@ -2841,8 +2817,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
         <v>234839</v>
       </c>
       <c r="B120" t="s">
@@ -2861,8 +2837,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
         <v>234937</v>
       </c>
       <c r="B121" t="s">
@@ -2881,8 +2857,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
         <v>234945</v>
       </c>
       <c r="B122" t="s">
@@ -2901,8 +2877,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
         <v>234966</v>
       </c>
       <c r="B123" t="s">
@@ -2921,8 +2897,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
         <v>234967</v>
       </c>
       <c r="B124" t="s">
@@ -2941,8 +2917,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
         <v>234977</v>
       </c>
       <c r="B125" t="s">
@@ -2961,8 +2937,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
         <v>234984</v>
       </c>
       <c r="B126" t="s">
@@ -2981,8 +2957,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
         <v>234989</v>
       </c>
       <c r="B127" t="s">
@@ -3001,8 +2977,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
         <v>234995</v>
       </c>
       <c r="B128" t="s">
@@ -3021,8 +2997,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
         <v>234996</v>
       </c>
       <c r="B129" t="s">
@@ -3041,8 +3017,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
         <v>234999</v>
       </c>
       <c r="B130" t="s">
@@ -3061,8 +3037,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
         <v>235001</v>
       </c>
       <c r="B131" t="s">
@@ -3081,8 +3057,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
         <v>235011</v>
       </c>
       <c r="B132" t="s">
@@ -3101,8 +3077,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
         <v>235023</v>
       </c>
       <c r="B133" t="s">
@@ -3121,8 +3097,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
         <v>235025</v>
       </c>
       <c r="B134" t="s">
@@ -3141,8 +3117,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
         <v>235058</v>
       </c>
       <c r="B135" t="s">
@@ -3161,8 +3137,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
         <v>235067</v>
       </c>
       <c r="B136" t="s">
@@ -3181,8 +3157,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
         <v>235111</v>
       </c>
       <c r="B137" t="s">
@@ -3201,8 +3177,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
         <v>235135</v>
       </c>
       <c r="B138" t="s">
@@ -3221,8 +3197,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
         <v>235181</v>
       </c>
       <c r="B139" t="s">

--- a/log_history/Y3_B2526_Parasitology_SGD_POS_scanner1759325558846_3cf107870fbc6c911162a70c7aa82dd4d6b607b7fef701b9a1a24220b885a6ae.xlsx
+++ b/log_history/Y3_B2526_Parasitology_SGD_POS_scanner1759325558846_3cf107870fbc6c911162a70c7aa82dd4d6b607b7fef701b9a1a24220b885a6ae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25101B34-11EC-4755-99D3-1E75528BAD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270B8F53-174B-45B2-A0B5-4F5C79CF9F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,6 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -84,8 +87,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,13 +431,14 @@
   <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -444,10 +448,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -464,10 +468,10 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.6422106481481481</v>
       </c>
       <c r="E2" t="s">
@@ -484,10 +488,10 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.6422106481481481</v>
       </c>
       <c r="E3" t="s">
@@ -504,10 +508,10 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E4" t="s">
@@ -524,10 +528,10 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E5" t="s">
@@ -544,10 +548,10 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E6" t="s">
@@ -564,10 +568,10 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E7" t="s">
@@ -584,10 +588,10 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E8" t="s">
@@ -604,10 +608,10 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E9" t="s">
@@ -624,10 +628,10 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E10" t="s">
@@ -644,10 +648,10 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E11" t="s">
@@ -664,10 +668,10 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E12" t="s">
@@ -684,10 +688,10 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E13" t="s">
@@ -704,10 +708,10 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E14" t="s">
@@ -724,10 +728,10 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E15" t="s">
@@ -744,10 +748,10 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E16" t="s">
@@ -764,10 +768,10 @@
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E17" t="s">
@@ -784,10 +788,10 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E18" t="s">
@@ -804,10 +808,10 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E19" t="s">
@@ -824,10 +828,10 @@
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D20" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E20" t="s">
@@ -844,10 +848,10 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D21" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E21" t="s">
@@ -864,10 +868,10 @@
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E22" t="s">
@@ -884,10 +888,10 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D23" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E23" t="s">
@@ -904,10 +908,10 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E24" t="s">
@@ -924,10 +928,10 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D25" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E25" t="s">
@@ -944,10 +948,10 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D26" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E26" t="s">
@@ -964,10 +968,10 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D27" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E27" t="s">
@@ -984,10 +988,10 @@
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E28" t="s">
@@ -1004,10 +1008,10 @@
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E29" t="s">
@@ -1024,10 +1028,10 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E30" t="s">
@@ -1044,10 +1048,10 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D31" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E31" t="s">
@@ -1064,10 +1068,10 @@
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D32" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E32" t="s">
@@ -1084,10 +1088,10 @@
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D33" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E33" t="s">
@@ -1104,10 +1108,10 @@
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D34" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E34" t="s">
@@ -1124,10 +1128,10 @@
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D35" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E35" t="s">
@@ -1144,10 +1148,10 @@
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D36" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E36" t="s">
@@ -1164,10 +1168,10 @@
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D37" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E37" t="s">
@@ -1184,10 +1188,10 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D38" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E38" t="s">
@@ -1204,10 +1208,10 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D39" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E39" t="s">
@@ -1224,10 +1228,10 @@
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D40" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E40" t="s">
@@ -1244,10 +1248,10 @@
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D41" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E41" t="s">
@@ -1264,10 +1268,10 @@
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D42" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E42" t="s">
@@ -1284,10 +1288,10 @@
       <c r="B43" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D43" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E43" t="s">
@@ -1304,10 +1308,10 @@
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D44" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E44" t="s">
@@ -1324,10 +1328,10 @@
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D45" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E45" t="s">
@@ -1344,10 +1348,10 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D46" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E46" t="s">
@@ -1364,10 +1368,10 @@
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D47" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E47" t="s">
@@ -1384,10 +1388,10 @@
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D48" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E48" t="s">
@@ -1404,10 +1408,10 @@
       <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D49" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E49" t="s">
@@ -1424,10 +1428,10 @@
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D50" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E50" t="s">
@@ -1444,10 +1448,10 @@
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D51" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E51" t="s">
@@ -1464,10 +1468,10 @@
       <c r="B52" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D52" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E52" t="s">
@@ -1484,10 +1488,10 @@
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D53" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E53" t="s">
@@ -1504,10 +1508,10 @@
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C54" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D54" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E54" t="s">
@@ -1524,10 +1528,10 @@
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="C55" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D55" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E55" t="s">
@@ -1544,10 +1548,10 @@
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D56" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E56" t="s">
@@ -1564,10 +1568,10 @@
       <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D57" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E57" t="s">
@@ -1584,10 +1588,10 @@
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D58" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E58" t="s">
@@ -1604,10 +1608,10 @@
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D59" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E59" t="s">
@@ -1624,10 +1628,10 @@
       <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="C60" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D60" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E60" t="s">
@@ -1644,10 +1648,10 @@
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="C61" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D61" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E61" t="s">
@@ -1664,10 +1668,10 @@
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C62" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D62" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E62" t="s">
@@ -1684,10 +1688,10 @@
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D63" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E63" t="s">
@@ -1704,10 +1708,10 @@
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C64" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D64" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E64" t="s">
@@ -1724,10 +1728,10 @@
       <c r="B65" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D65" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E65" t="s">
@@ -1744,10 +1748,10 @@
       <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="C66" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D66" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E66" t="s">
@@ -1764,10 +1768,10 @@
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="C67" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D67" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E67" t="s">
@@ -1784,10 +1788,10 @@
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="C68" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D68" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E68" t="s">
@@ -1804,10 +1808,10 @@
       <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="C69" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D69" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E69" t="s">
@@ -1824,10 +1828,10 @@
       <c r="B70" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="C70" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D70" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E70" t="s">
@@ -1844,10 +1848,10 @@
       <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="C71" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D71" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E71" t="s">
@@ -1864,10 +1868,10 @@
       <c r="B72" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="C72" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D72" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E72" t="s">
@@ -1884,10 +1888,10 @@
       <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C73" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D73" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E73" t="s">
@@ -1904,10 +1908,10 @@
       <c r="B74" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="C74" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D74" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E74" t="s">
@@ -1924,10 +1928,10 @@
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="C75" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D75" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E75" t="s">
@@ -1944,10 +1948,10 @@
       <c r="B76" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D76" s="1">
+      <c r="C76" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D76" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E76" t="s">
@@ -1964,10 +1968,10 @@
       <c r="B77" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="C77" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D77" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E77" t="s">
@@ -1984,10 +1988,10 @@
       <c r="B78" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="C78" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D78" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E78" t="s">
@@ -2004,10 +2008,10 @@
       <c r="B79" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="C79" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D79" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E79" t="s">
@@ -2024,10 +2028,10 @@
       <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D80" s="1">
+      <c r="C80" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D80" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E80" t="s">
@@ -2044,10 +2048,10 @@
       <c r="B81" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="C81" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D81" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E81" t="s">
@@ -2064,10 +2068,10 @@
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="C82" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D82" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E82" t="s">
@@ -2084,10 +2088,10 @@
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="C83" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D83" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E83" t="s">
@@ -2104,10 +2108,10 @@
       <c r="B84" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D84" s="1">
+      <c r="C84" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D84" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E84" t="s">
@@ -2124,10 +2128,10 @@
       <c r="B85" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="C85" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D85" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E85" t="s">
@@ -2144,10 +2148,10 @@
       <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="C86" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D86" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E86" t="s">
@@ -2164,10 +2168,10 @@
       <c r="B87" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D87" s="1">
+      <c r="C87" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D87" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E87" t="s">
@@ -2184,10 +2188,10 @@
       <c r="B88" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="C88" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D88" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E88" t="s">
@@ -2204,10 +2208,10 @@
       <c r="B89" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D89" s="1">
+      <c r="C89" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D89" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E89" t="s">
@@ -2224,10 +2228,10 @@
       <c r="B90" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D90" s="1">
+      <c r="C90" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D90" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E90" t="s">
@@ -2244,10 +2248,10 @@
       <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="C91" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D91" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E91" t="s">
@@ -2264,10 +2268,10 @@
       <c r="B92" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="C92" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D92" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E92" t="s">
@@ -2284,10 +2288,10 @@
       <c r="B93" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="C93" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D93" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E93" t="s">
@@ -2304,10 +2308,10 @@
       <c r="B94" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="C94" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D94" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E94" t="s">
@@ -2324,10 +2328,10 @@
       <c r="B95" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D95" s="1">
+      <c r="C95" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D95" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E95" t="s">
@@ -2344,10 +2348,10 @@
       <c r="B96" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D96" s="1">
+      <c r="C96" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D96" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E96" t="s">
@@ -2364,10 +2368,10 @@
       <c r="B97" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="C97" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D97" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E97" t="s">
@@ -2384,10 +2388,10 @@
       <c r="B98" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D98" s="1">
+      <c r="C98" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D98" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E98" t="s">
@@ -2404,10 +2408,10 @@
       <c r="B99" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D99" s="1">
+      <c r="C99" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D99" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E99" t="s">
@@ -2424,10 +2428,10 @@
       <c r="B100" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="C100" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D100" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E100" t="s">
@@ -2444,10 +2448,10 @@
       <c r="B101" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="C101" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D101" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E101" t="s">
@@ -2464,10 +2468,10 @@
       <c r="B102" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D102" s="1">
+      <c r="C102" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D102" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E102" t="s">
@@ -2484,10 +2488,10 @@
       <c r="B103" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D103" s="1">
+      <c r="C103" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D103" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E103" t="s">
@@ -2504,10 +2508,10 @@
       <c r="B104" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="C104" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D104" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E104" t="s">
@@ -2524,10 +2528,10 @@
       <c r="B105" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D105" s="1">
+      <c r="C105" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D105" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E105" t="s">
@@ -2544,10 +2548,10 @@
       <c r="B106" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="C106" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D106" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E106" t="s">
@@ -2564,10 +2568,10 @@
       <c r="B107" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D107" s="1">
+      <c r="C107" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D107" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E107" t="s">
@@ -2584,10 +2588,10 @@
       <c r="B108" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D108" s="1">
+      <c r="C108" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D108" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E108" t="s">
@@ -2604,10 +2608,10 @@
       <c r="B109" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D109" s="1">
+      <c r="C109" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D109" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E109" t="s">
@@ -2624,10 +2628,10 @@
       <c r="B110" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D110" s="1">
+      <c r="C110" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D110" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E110" t="s">
@@ -2644,10 +2648,10 @@
       <c r="B111" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D111" s="1">
+      <c r="C111" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D111" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E111" t="s">
@@ -2664,10 +2668,10 @@
       <c r="B112" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D112" s="1">
+      <c r="C112" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D112" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E112" t="s">
@@ -2684,10 +2688,10 @@
       <c r="B113" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D113" s="1">
+      <c r="C113" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D113" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E113" t="s">
@@ -2704,10 +2708,10 @@
       <c r="B114" t="s">
         <v>6</v>
       </c>
-      <c r="C114" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D114" s="1">
+      <c r="C114" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D114" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E114" t="s">
@@ -2724,10 +2728,10 @@
       <c r="B115" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D115" s="1">
+      <c r="C115" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D115" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E115" t="s">
@@ -2744,10 +2748,10 @@
       <c r="B116" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D116" s="1">
+      <c r="C116" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D116" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E116" t="s">
@@ -2764,10 +2768,10 @@
       <c r="B117" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D117" s="1">
+      <c r="C117" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D117" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E117" t="s">
@@ -2784,10 +2788,10 @@
       <c r="B118" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D118" s="1">
+      <c r="C118" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D118" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E118" t="s">
@@ -2804,10 +2808,10 @@
       <c r="B119" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D119" s="1">
+      <c r="C119" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D119" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E119" t="s">
@@ -2824,10 +2828,10 @@
       <c r="B120" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D120" s="1">
+      <c r="C120" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D120" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E120" t="s">
@@ -2844,10 +2848,10 @@
       <c r="B121" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D121" s="1">
+      <c r="C121" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D121" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E121" t="s">
@@ -2864,10 +2868,10 @@
       <c r="B122" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D122" s="1">
+      <c r="C122" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D122" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E122" t="s">
@@ -2884,10 +2888,10 @@
       <c r="B123" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D123" s="1">
+      <c r="C123" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D123" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E123" t="s">
@@ -2904,10 +2908,10 @@
       <c r="B124" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D124" s="1">
+      <c r="C124" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D124" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E124" t="s">
@@ -2924,10 +2928,10 @@
       <c r="B125" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D125" s="1">
+      <c r="C125" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D125" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E125" t="s">
@@ -2944,10 +2948,10 @@
       <c r="B126" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D126" s="1">
+      <c r="C126" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D126" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E126" t="s">
@@ -2964,10 +2968,10 @@
       <c r="B127" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D127" s="1">
+      <c r="C127" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D127" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E127" t="s">
@@ -2984,10 +2988,10 @@
       <c r="B128" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D128" s="1">
+      <c r="C128" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D128" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E128" t="s">
@@ -3004,10 +3008,10 @@
       <c r="B129" t="s">
         <v>6</v>
       </c>
-      <c r="C129" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D129" s="1">
+      <c r="C129" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D129" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E129" t="s">
@@ -3024,10 +3028,10 @@
       <c r="B130" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D130" s="1">
+      <c r="C130" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D130" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E130" t="s">
@@ -3044,10 +3048,10 @@
       <c r="B131" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D131" s="1">
+      <c r="C131" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D131" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E131" t="s">
@@ -3064,10 +3068,10 @@
       <c r="B132" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D132" s="1">
+      <c r="C132" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D132" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E132" t="s">
@@ -3084,10 +3088,10 @@
       <c r="B133" t="s">
         <v>6</v>
       </c>
-      <c r="C133" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D133" s="1">
+      <c r="C133" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D133" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E133" t="s">
@@ -3104,10 +3108,10 @@
       <c r="B134" t="s">
         <v>6</v>
       </c>
-      <c r="C134" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D134" s="1">
+      <c r="C134" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D134" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E134" t="s">
@@ -3124,10 +3128,10 @@
       <c r="B135" t="s">
         <v>6</v>
       </c>
-      <c r="C135" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D135" s="1">
+      <c r="C135" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D135" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E135" t="s">
@@ -3144,10 +3148,10 @@
       <c r="B136" t="s">
         <v>6</v>
       </c>
-      <c r="C136" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D136" s="1">
+      <c r="C136" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D136" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E136" t="s">
@@ -3164,10 +3168,10 @@
       <c r="B137" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D137" s="1">
+      <c r="C137" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D137" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E137" t="s">
@@ -3184,10 +3188,10 @@
       <c r="B138" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D138" s="1">
+      <c r="C138" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D138" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E138" t="s">
@@ -3204,10 +3208,10 @@
       <c r="B139" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="2">
-        <v>45959</v>
-      </c>
-      <c r="D139" s="1">
+      <c r="C139" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D139" s="2">
         <v>0.64221064814814799</v>
       </c>
       <c r="E139" t="s">
